--- a/st-parranderos-jdo-est/doc/Iteracion 2/casos de prueba.xlsx
+++ b/st-parranderos-jdo-est/doc/Iteracion 2/casos de prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\Sistrans iteracion\sistrans1\st-parranderos-jdo-est\doc\Iteracion 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57C4EEB-15F7-42D7-808D-3EBD1DAB05B2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C13393-F1F2-4018-AF13-F66270C10A80}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21268" windowHeight="8053" xr2:uid="{AA52F232-BF32-4886-9322-24B6A6BB5649}"/>
   </bookViews>

--- a/st-parranderos-jdo-est/doc/Iteracion 2/casos de prueba.xlsx
+++ b/st-parranderos-jdo-est/doc/Iteracion 2/casos de prueba.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\Sistrans iteracion\sistrans1\st-parranderos-jdo-est\doc\Iteracion 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferchotp/sistrans1/st-parranderos-jdo-est/doc/Iteracion 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C13393-F1F2-4018-AF13-F66270C10A80}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21268" windowHeight="8053" xr2:uid="{AA52F232-BF32-4886-9322-24B6A6BB5649}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Pruebas requerimientos iteración2</t>
   </si>
@@ -81,12 +86,24 @@
   </si>
   <si>
     <t>Para este caso, en la base de datos pedimos que se nos asigne un carro que pertenezca a la sucursal 1. A este carrito le asignamos la clave 1, que es para que solo ese cliente pueda manejarlo. Para abandonar ese carrito, la contraseña debe ser correcta. Intentamos abandonar el carrito asignado con una contraseña incorrecta y no nos debería dejar (el objeto que retorna debe ser null). Luego se introduce la contraseña y se verifica que el estado del carrito sea: 'abandonado'.</t>
+  </si>
+  <si>
+    <t>sucursal: 1, clave de carrito: 1, idProducto: 1,2,3 , cantidadProductos: 3</t>
+  </si>
+  <si>
+    <t>Para este caso, en la base de datos pedimos que se nos asigne un carro que pertenezca a la sucursal 1. A este carrito le asignamos la clave 1, que es para que solo ese cliente pueda manejarlo. A este carrito se le adicionan 3 productos. Después se hace un llamado a la lista de tuplas en la tabla de contiene para verificar que si se hayan agregado los productos, si el número esperado es el tamaño de la lista de productos el método está correcto. Así mismo, se comparan las existencias antes y después de la inserción para verificar que si se hayan agregado los productos.</t>
+  </si>
+  <si>
+    <t>Para este caso, en la base de datos pedimos que se nos asigne un carro que pertenezca a la sucursal 1. A este carrito le asignamos la clave 1, que es para que solo ese cliente pueda manejarlo. A ese carrito le adicionamos 3 productos. Después, se procede a ejecutar el requerimiento de pagar compra para poder testear que los porductos fueron eliminados del carrito y que las existencias se modificaron en estantes y bodegas.</t>
+  </si>
+  <si>
+    <t>Para este caso, en la base de datos pedimos que se nos asigne un carro que pertenezca a la sucursal 1. A este carrito le asignamos la clave 1, que es para que solo ese cliente pueda manejarlo. A ese carrito le adicionamos 5 unidades del producto 1. Después se abandona el carrito para poder ejecutar el requerimiento a probar de recolectar producto. Para testear su funcionamiento, se revisa que el carrito si quede efectivamente con cero productos con un assertEquals y así mismo, se verifican las existencias en estantes antes y después de recolectar los productos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,15 +137,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,100 +489,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164FCCA4-69C1-4F00-9524-4E640A5A3C3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.69921875" customWidth="1"/>
-    <col min="3" max="3" width="85.3984375" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="85.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="67.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
